--- a/biology/Botanique/Chrysanthellum/Chrysanthellum.xlsx
+++ b/biology/Botanique/Chrysanthellum/Chrysanthellum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrysanthellum est un genre de plante à fleurs de la famille des Asteraceae, à ne pas confondre avec le genre Chrysanthemum.
 </t>
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est le premier descripteur, Persoon (1807) qui attribue le nom et sa description que nous ne possédons pas à Richard[1]. Lamark écrit  «Chrysantellum. Genre que M. Persoon, dans son Synopsis[2], a établi, d'après M. Richard, pour le Verbesina mutica. J'avais déjà désigné, à l'article Verbésine, les caractères qui écartaient cette plante de ce genre. [ ] Un calice cylindrique, presque de la longueur des fleurons, les semences»[3]. De Candolle (1815) décrit l'espèce C. perpusillum «Chrysanthéme très petit» collecté aux Iles Sanguinaires[4] Le Dictionnaire des Sciences Naturelles (1817) le Chrysanthelle couché (Chrysanthellum procumbens) américain[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est le premier descripteur, Persoon (1807) qui attribue le nom et sa description que nous ne possédons pas à Richard. Lamark écrit  «Chrysantellum. Genre que M. Persoon, dans son Synopsis, a établi, d'après M. Richard, pour le Verbesina mutica. J'avais déjà désigné, à l'article Verbésine, les caractères qui écartaient cette plante de ce genre. [ ] Un calice cylindrique, presque de la longueur des fleurons, les semences». De Candolle (1815) décrit l'espèce C. perpusillum «Chrysanthéme très petit» collecté aux Iles Sanguinaires Le Dictionnaire des Sciences Naturelles (1817) le Chrysanthelle couché (Chrysanthellum procumbens) américain.
 </t>
         </is>
       </c>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Propriétés pharmaceutiques
-Les espèces C. americanum et C indicum font principalement l'objet de publications académiques. La première est une plante des ethnomédecines africaine et américaine (cicatrisation, fièvre, hépatite, jaunisse, dysenterie, action hypolipémiante et hépato protectrice. Les saponosides (chrysanthellines A et B) et divers flavonoïdes[6] seraient des principes actifs[7].
+          <t>Propriétés pharmaceutiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces C. americanum et C indicum font principalement l'objet de publications académiques. La première est une plante des ethnomédecines africaine et américaine (cicatrisation, fièvre, hépatite, jaunisse, dysenterie, action hypolipémiante et hépato protectrice. Les saponosides (chrysanthellines A et B) et divers flavonoïdes seraient des principes actifs.
 </t>
         </is>
       </c>
@@ -574,13 +593,15 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Naturalisée en Asie et en Afrique 
 Chrysanthellum americanum (L.) Vatke
-Chrysanthellum indicum DC.[8]
+Chrysanthellum indicum DC.
 C. indicum subsp. afroamericanum B.L.Turner (2012)
-C. indicum subsp. mexicanum (Greenm.) B.L.Turner (2012)[8]
+C. indicum subsp. mexicanum (Greenm.) B.L.Turner (2012)
 Mexique 
 Chrysanthellum filiforme McVaugh
 Chrysanthellum integrifolium Steetz ex Steetz
@@ -595,7 +616,7 @@
 Chrysanthellum tuberculatum (Hook. &amp; Arn.) Cabrera
 Galapogos
 Chrysanthellum fagerlindii Eliasson
-Chrysanthellum pusillum Hook.f.[9]</t>
+Chrysanthellum pusillum Hook.f.</t>
         </is>
       </c>
     </row>
